--- a/DAFTAR penanganan.xlsx
+++ b/DAFTAR penanganan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="117">
   <si>
     <t>demam</t>
   </si>
@@ -341,6 +341,30 @@
   </si>
   <si>
     <t>G28</t>
+  </si>
+  <si>
+    <t>G15</t>
+  </si>
+  <si>
+    <t>G16</t>
+  </si>
+  <si>
+    <t>G17</t>
+  </si>
+  <si>
+    <t>G25</t>
+  </si>
+  <si>
+    <t>G26</t>
+  </si>
+  <si>
+    <t>G08</t>
+  </si>
+  <si>
+    <t>G01</t>
+  </si>
+  <si>
+    <t>G19</t>
   </si>
 </sst>
 </file>
@@ -364,7 +388,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -782,15 +806,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -810,17 +825,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -879,11 +883,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -935,12 +952,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -998,23 +1009,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -1022,15 +1030,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1040,37 +1075,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1374,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD53"/>
+  <dimension ref="A1:AD92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X62" sqref="X62"/>
+    <sheetView tabSelected="1" topLeftCell="M21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Z54" sqref="Z54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,75 +1417,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="67" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="67" t="s">
+      <c r="F1" s="57"/>
+      <c r="G1" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="68"/>
-      <c r="I1" s="67" t="s">
+      <c r="H1" s="57"/>
+      <c r="I1" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="67" t="s">
+      <c r="J1" s="62"/>
+      <c r="K1" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="68"/>
-      <c r="M1" s="67" t="s">
+      <c r="L1" s="57"/>
+      <c r="M1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="68"/>
-      <c r="O1" s="67" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="67" t="s">
+      <c r="P1" s="57"/>
+      <c r="Q1" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="68"/>
-      <c r="S1" s="67" t="s">
+      <c r="R1" s="57"/>
+      <c r="S1" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="T1" s="68"/>
-      <c r="V1" s="59" t="s">
+      <c r="T1" s="57"/>
+      <c r="V1" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="W1" s="64" t="s">
+      <c r="W1" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="66" t="s">
+      <c r="X1" s="54"/>
+      <c r="Y1" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="66" t="s">
+      <c r="Z1" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="66" t="s">
+      <c r="AA1" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="62" t="s">
+      <c r="AB1" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="58" t="s">
+      <c r="AC1" s="64" t="s">
         <v>46</v>
       </c>
       <c r="AD1" s="3"/>
     </row>
     <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="10" t="s">
         <v>44</v>
       </c>
@@ -1518,19 +1540,19 @@
       <c r="T2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="61"/>
-      <c r="W2" s="45" t="s">
+      <c r="V2" s="67"/>
+      <c r="W2" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="X2" s="45" t="s">
+      <c r="X2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="23"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="21"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1565,24 +1587,24 @@
       <c r="R3" s="13"/>
       <c r="S3" s="12"/>
       <c r="T3" s="13"/>
-      <c r="V3" s="59" t="s">
+      <c r="V3" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="W3" s="31" t="s">
+      <c r="W3" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="X3" s="32" t="s">
+      <c r="X3" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="Y3" s="27">
+      <c r="Y3" s="25">
         <v>0.9</v>
       </c>
-      <c r="Z3" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="21">
+      <c r="Z3" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="55">
         <v>0.8</v>
       </c>
       <c r="AD3" s="7"/>
@@ -1628,11 +1650,11 @@
       <c r="T4" s="15">
         <v>0.3</v>
       </c>
-      <c r="V4" s="60"/>
+      <c r="V4" s="66"/>
       <c r="W4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="X4" s="33" t="s">
+      <c r="X4" s="31" t="s">
         <v>71</v>
       </c>
       <c r="Y4" s="14">
@@ -1641,16 +1663,13 @@
       <c r="Z4" s="15">
         <v>0.1</v>
       </c>
-      <c r="AA4" s="24">
-        <f>SUM(Y3+Y4*(1-Y3))</f>
+      <c r="AA4" s="22">
         <v>0.96</v>
       </c>
-      <c r="AB4" s="24">
-        <f>SUM(Z3+Z4*(1-Z3))</f>
+      <c r="AB4" s="22">
         <v>0.19</v>
       </c>
       <c r="AC4" s="11">
-        <f>SUM(AA4-AB4)</f>
         <v>0.77</v>
       </c>
       <c r="AD4" s="7"/>
@@ -1684,11 +1703,11 @@
       <c r="R5" s="15"/>
       <c r="S5" s="14"/>
       <c r="T5" s="15"/>
-      <c r="V5" s="60"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="X5" s="33" t="s">
+      <c r="X5" s="31" t="s">
         <v>61</v>
       </c>
       <c r="Y5" s="14">
@@ -1697,16 +1716,13 @@
       <c r="Z5" s="15">
         <v>0.1</v>
       </c>
-      <c r="AA5" s="24">
-        <f>SUM(AA4+Y5*(1-AA4))</f>
+      <c r="AA5" s="22">
         <v>0.98399999999999999</v>
       </c>
-      <c r="AB5" s="24">
-        <f>SUM(AB4+Z5*(1-AB4))</f>
+      <c r="AB5" s="22">
         <v>0.27100000000000002</v>
       </c>
       <c r="AC5" s="11">
-        <f t="shared" ref="AC5:AC8" si="0">SUM(AA5-AB5)</f>
         <v>0.71299999999999997</v>
       </c>
       <c r="AD5" s="7"/>
@@ -1768,29 +1784,26 @@
       </c>
       <c r="S6" s="14"/>
       <c r="T6" s="15"/>
-      <c r="V6" s="60"/>
+      <c r="V6" s="66"/>
       <c r="W6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="X6" s="33" t="s">
+      <c r="X6" s="31" t="s">
         <v>50</v>
       </c>
       <c r="Y6" s="14">
         <v>0.8</v>
       </c>
-      <c r="Z6" s="30">
+      <c r="Z6" s="28">
         <v>0.2</v>
       </c>
-      <c r="AA6" s="24">
-        <f>SUM(AA5+Y6*(1-AA5))</f>
+      <c r="AA6" s="22">
         <v>0.99680000000000002</v>
       </c>
-      <c r="AB6" s="24">
-        <f t="shared" ref="AB6:AB8" si="1">SUM(AB5+Z6*(1-AB5))</f>
-        <v>0.41680000000000006</v>
+      <c r="AB6" s="22">
+        <v>0.4168</v>
       </c>
       <c r="AC6" s="11">
-        <f t="shared" si="0"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="AD6" s="7"/>
@@ -1840,11 +1853,11 @@
       </c>
       <c r="S7" s="14"/>
       <c r="T7" s="15"/>
-      <c r="V7" s="60"/>
+      <c r="V7" s="66"/>
       <c r="W7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="X7" s="33" t="s">
+      <c r="X7" s="31" t="s">
         <v>0</v>
       </c>
       <c r="Y7" s="14">
@@ -1853,17 +1866,14 @@
       <c r="Z7" s="15">
         <v>0.1</v>
       </c>
-      <c r="AA7" s="24">
-        <f>SUM(AA6+Y7*(1-AA6))</f>
+      <c r="AA7" s="22">
         <v>0.99904000000000004</v>
       </c>
-      <c r="AB7" s="24">
-        <f t="shared" si="1"/>
-        <v>0.47512000000000004</v>
+      <c r="AB7" s="22">
+        <v>0.47511999999999999</v>
       </c>
       <c r="AC7" s="11">
-        <f t="shared" si="0"/>
-        <v>0.52391999999999994</v>
+        <v>0.52392000000000005</v>
       </c>
       <c r="AD7" s="7"/>
     </row>
@@ -1916,11 +1926,11 @@
       </c>
       <c r="S8" s="14"/>
       <c r="T8" s="15"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="25" t="s">
+      <c r="V8" s="67"/>
+      <c r="W8" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="X8" s="50" t="s">
+      <c r="X8" s="47" t="s">
         <v>49</v>
       </c>
       <c r="Y8" s="14">
@@ -1929,16 +1939,13 @@
       <c r="Z8" s="15">
         <v>0.3</v>
       </c>
-      <c r="AA8" s="26">
-        <f>SUM(AA7+Y8*(1-AA7))</f>
-        <v>0.99961600000000006</v>
-      </c>
-      <c r="AB8" s="26">
-        <f t="shared" si="1"/>
+      <c r="AA8" s="24">
+        <v>0.99961599999999995</v>
+      </c>
+      <c r="AB8" s="24">
         <v>0.63258400000000004</v>
       </c>
-      <c r="AC8" s="49">
-        <f t="shared" si="0"/>
+      <c r="AC8" s="46">
         <v>0.36703200000000002</v>
       </c>
       <c r="AD8" s="7"/>
@@ -1996,24 +2003,24 @@
       </c>
       <c r="S9" s="14"/>
       <c r="T9" s="15"/>
-      <c r="V9" s="59" t="s">
+      <c r="V9" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="W9" s="31" t="s">
+      <c r="W9" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="X9" s="32" t="s">
+      <c r="X9" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="Y9" s="27">
+      <c r="Y9" s="25">
         <v>0.8</v>
       </c>
-      <c r="Z9" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="21">
+      <c r="Z9" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="55">
         <v>0.7</v>
       </c>
       <c r="AD9" s="7"/>
@@ -2059,11 +2066,11 @@
       <c r="R10" s="15"/>
       <c r="S10" s="14"/>
       <c r="T10" s="15"/>
-      <c r="V10" s="60"/>
+      <c r="V10" s="66"/>
       <c r="W10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="X10" s="33" t="s">
+      <c r="X10" s="31" t="s">
         <v>71</v>
       </c>
       <c r="Y10" s="14">
@@ -2072,16 +2079,13 @@
       <c r="Z10" s="15">
         <v>0.2</v>
       </c>
-      <c r="AA10" s="24">
-        <f>SUM(Y9+Y10*(1-Y9))</f>
+      <c r="AA10" s="22">
         <v>0.98</v>
       </c>
-      <c r="AB10" s="24">
-        <f>SUM(Z9+Z10*(1-Z9))</f>
+      <c r="AB10" s="22">
         <v>0.28000000000000003</v>
       </c>
       <c r="AC10" s="11">
-        <f>SUM(AA10-AB10)</f>
         <v>0.7</v>
       </c>
       <c r="AD10" s="7"/>
@@ -2127,11 +2131,11 @@
       <c r="R11" s="15"/>
       <c r="S11" s="14"/>
       <c r="T11" s="15"/>
-      <c r="V11" s="60"/>
+      <c r="V11" s="66"/>
       <c r="W11" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="X11" s="33" t="s">
+      <c r="X11" s="31" t="s">
         <v>61</v>
       </c>
       <c r="Y11" s="14">
@@ -2140,16 +2144,13 @@
       <c r="Z11" s="15">
         <v>0.2</v>
       </c>
-      <c r="AA11" s="24">
-        <f>SUM(AA10+Y11*(1-AA10))</f>
+      <c r="AA11" s="22">
         <v>0.998</v>
       </c>
-      <c r="AB11" s="24">
-        <f>SUM(AB10+Z11*(1-AB10))</f>
-        <v>0.42400000000000004</v>
+      <c r="AB11" s="22">
+        <v>0.42399999999999999</v>
       </c>
       <c r="AC11" s="11">
-        <f t="shared" ref="AC11:AC14" si="2">SUM(AA11-AB11)</f>
         <v>0.57399999999999995</v>
       </c>
       <c r="AD11" s="7"/>
@@ -2191,11 +2192,11 @@
       <c r="R12" s="15"/>
       <c r="S12" s="14"/>
       <c r="T12" s="15"/>
-      <c r="V12" s="60"/>
+      <c r="V12" s="66"/>
       <c r="W12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="X12" s="33" t="s">
+      <c r="X12" s="31" t="s">
         <v>50</v>
       </c>
       <c r="Y12" s="14">
@@ -2204,17 +2205,14 @@
       <c r="Z12" s="15">
         <v>0.3</v>
       </c>
-      <c r="AA12" s="24">
-        <f t="shared" ref="AA12:AA14" si="3">SUM(AA11+Y12*(1-AA11))</f>
+      <c r="AA12" s="22">
         <v>0.99939999999999996</v>
       </c>
-      <c r="AB12" s="24">
-        <f t="shared" ref="AB12:AB14" si="4">SUM(AB11+Z12*(1-AB11))</f>
+      <c r="AB12" s="22">
         <v>0.5968</v>
       </c>
       <c r="AC12" s="11">
-        <f t="shared" si="2"/>
-        <v>0.40259999999999996</v>
+        <v>0.40260000000000001</v>
       </c>
       <c r="AD12" s="7"/>
     </row>
@@ -2271,11 +2269,11 @@
       </c>
       <c r="S13" s="14"/>
       <c r="T13" s="15"/>
-      <c r="V13" s="60"/>
+      <c r="V13" s="66"/>
       <c r="W13" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="X13" s="33" t="s">
+      <c r="X13" s="31" t="s">
         <v>65</v>
       </c>
       <c r="Y13" s="14">
@@ -2284,17 +2282,14 @@
       <c r="Z13" s="15">
         <v>0.2</v>
       </c>
-      <c r="AA13" s="24">
-        <f t="shared" si="3"/>
+      <c r="AA13" s="22">
         <v>0.99987999999999999</v>
       </c>
-      <c r="AB13" s="24">
-        <f t="shared" si="4"/>
+      <c r="AB13" s="22">
         <v>0.67744000000000004</v>
       </c>
       <c r="AC13" s="11">
-        <f t="shared" si="2"/>
-        <v>0.32243999999999995</v>
+        <v>0.32244</v>
       </c>
       <c r="AD13" s="7"/>
     </row>
@@ -2331,11 +2326,11 @@
       </c>
       <c r="S14" s="14"/>
       <c r="T14" s="15"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="34" t="s">
+      <c r="V14" s="67"/>
+      <c r="W14" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="X14" s="35" t="s">
+      <c r="X14" s="33" t="s">
         <v>72</v>
       </c>
       <c r="Y14" s="16">
@@ -2344,16 +2339,13 @@
       <c r="Z14" s="17">
         <v>0.1</v>
       </c>
-      <c r="AA14" s="24">
-        <f t="shared" si="3"/>
+      <c r="AA14" s="22">
         <v>0.99997599999999998</v>
       </c>
-      <c r="AB14" s="24">
-        <f t="shared" si="4"/>
+      <c r="AB14" s="22">
         <v>0.70969599999999999</v>
       </c>
       <c r="AC14" s="11">
-        <f t="shared" si="2"/>
         <v>0.29027999999999998</v>
       </c>
       <c r="AD14" s="7"/>
@@ -2387,24 +2379,24 @@
       <c r="R15" s="15"/>
       <c r="S15" s="14"/>
       <c r="T15" s="15"/>
-      <c r="V15" s="59" t="s">
+      <c r="V15" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="W15" s="31" t="s">
+      <c r="W15" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="X15" s="32" t="s">
+      <c r="X15" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="Y15" s="27">
+      <c r="Y15" s="25">
         <v>0.7</v>
       </c>
-      <c r="Z15" s="28">
+      <c r="Z15" s="26">
         <v>0.2</v>
       </c>
-      <c r="AA15" s="51"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="21">
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="55">
         <v>0.5</v>
       </c>
       <c r="AD15" s="7"/>
@@ -2438,11 +2430,11 @@
       <c r="R16" s="15"/>
       <c r="S16" s="14"/>
       <c r="T16" s="15"/>
-      <c r="V16" s="60"/>
+      <c r="V16" s="66"/>
       <c r="W16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="X16" s="33" t="s">
+      <c r="X16" s="31" t="s">
         <v>71</v>
       </c>
       <c r="Y16" s="14">
@@ -2452,15 +2444,12 @@
         <v>0.3</v>
       </c>
       <c r="AA16" s="10">
-        <f>SUM(Y15+Y16*(1-Y15))</f>
         <v>0.85</v>
       </c>
-      <c r="AB16" s="24">
-        <f>SUM(Z15+Z16*(1-Z15))</f>
+      <c r="AB16" s="22">
         <v>0.44</v>
       </c>
       <c r="AC16" s="11">
-        <f>SUM(AA16-AB16)</f>
         <v>0.41</v>
       </c>
       <c r="AD16" s="7"/>
@@ -2494,11 +2483,11 @@
       <c r="R17" s="15"/>
       <c r="S17" s="14"/>
       <c r="T17" s="15"/>
-      <c r="V17" s="60"/>
+      <c r="V17" s="66"/>
       <c r="W17" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="X17" s="33" t="s">
+      <c r="X17" s="31" t="s">
         <v>61</v>
       </c>
       <c r="Y17" s="14">
@@ -2508,15 +2497,12 @@
         <v>0.1</v>
       </c>
       <c r="AA17" s="10">
-        <f>SUM(AA16+Y17*(1-AA16))</f>
         <v>0.98499999999999999</v>
       </c>
-      <c r="AB17" s="24">
-        <f>SUM(AB16+Z17*(1-AB16))</f>
+      <c r="AB17" s="22">
         <v>0.496</v>
       </c>
       <c r="AC17" s="11">
-        <f t="shared" ref="AC17:AC20" si="5">SUM(AA17-AB17)</f>
         <v>0.48899999999999999</v>
       </c>
       <c r="AD17" s="7"/>
@@ -2550,11 +2536,11 @@
       <c r="R18" s="15"/>
       <c r="S18" s="14"/>
       <c r="T18" s="15"/>
-      <c r="V18" s="60"/>
+      <c r="V18" s="66"/>
       <c r="W18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="X18" s="33" t="s">
+      <c r="X18" s="31" t="s">
         <v>50</v>
       </c>
       <c r="Y18" s="14">
@@ -2564,15 +2550,12 @@
         <v>0.5</v>
       </c>
       <c r="AA18" s="10">
-        <f t="shared" ref="AA18:AA20" si="6">SUM(AA17+Y18*(1-AA17))</f>
         <v>0.997</v>
       </c>
-      <c r="AB18" s="24">
-        <f t="shared" ref="AB18:AB20" si="7">SUM(AB17+Z18*(1-AB17))</f>
+      <c r="AB18" s="22">
         <v>0.748</v>
       </c>
       <c r="AC18" s="11">
-        <f t="shared" si="5"/>
         <v>0.249</v>
       </c>
       <c r="AD18" s="7"/>
@@ -2606,11 +2589,11 @@
       <c r="R19" s="15"/>
       <c r="S19" s="14"/>
       <c r="T19" s="15"/>
-      <c r="V19" s="60"/>
+      <c r="V19" s="66"/>
       <c r="W19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="X19" s="33" t="s">
+      <c r="X19" s="31" t="s">
         <v>60</v>
       </c>
       <c r="Y19" s="14">
@@ -2620,15 +2603,12 @@
         <v>0.4</v>
       </c>
       <c r="AA19" s="10">
-        <f t="shared" si="6"/>
         <v>0.99909999999999999</v>
       </c>
-      <c r="AB19" s="24">
-        <f t="shared" si="7"/>
+      <c r="AB19" s="22">
         <v>0.8488</v>
       </c>
       <c r="AC19" s="11">
-        <f t="shared" si="5"/>
         <v>0.15029999999999999</v>
       </c>
       <c r="AD19" s="7"/>
@@ -2662,11 +2642,11 @@
       <c r="T20" s="15">
         <v>0.1</v>
       </c>
-      <c r="V20" s="61"/>
-      <c r="W20" s="34" t="s">
+      <c r="V20" s="67"/>
+      <c r="W20" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="X20" s="35" t="s">
+      <c r="X20" s="33" t="s">
         <v>66</v>
       </c>
       <c r="Y20" s="16">
@@ -2675,17 +2655,14 @@
       <c r="Z20" s="17">
         <v>0.1</v>
       </c>
-      <c r="AA20" s="44">
-        <f t="shared" si="6"/>
+      <c r="AA20" s="42">
         <v>0.99990999999999997</v>
       </c>
-      <c r="AB20" s="47">
-        <f t="shared" si="7"/>
+      <c r="AB20" s="44">
         <v>0.86392000000000002</v>
       </c>
-      <c r="AC20" s="48">
-        <f t="shared" si="5"/>
-        <v>0.13598999999999994</v>
+      <c r="AC20" s="45">
+        <v>0.13599</v>
       </c>
       <c r="AD20" s="7"/>
     </row>
@@ -2718,13 +2695,13 @@
       <c r="R21" s="15"/>
       <c r="S21" s="14"/>
       <c r="T21" s="15"/>
-      <c r="V21" s="60" t="s">
+      <c r="V21" s="65" t="s">
         <v>81</v>
       </c>
       <c r="W21" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="X21" s="38" t="s">
+      <c r="X21" s="36" t="s">
         <v>62</v>
       </c>
       <c r="Y21" s="14">
@@ -2733,9 +2710,9 @@
       <c r="Z21" s="15">
         <v>0.15</v>
       </c>
-      <c r="AA21" s="51"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="21">
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="55">
         <v>0.35</v>
       </c>
       <c r="AD21" s="7"/>
@@ -2769,11 +2746,11 @@
       <c r="R22" s="15"/>
       <c r="S22" s="14"/>
       <c r="T22" s="15"/>
-      <c r="V22" s="60"/>
+      <c r="V22" s="66"/>
       <c r="W22" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="X22" s="33" t="s">
+      <c r="X22" s="31" t="s">
         <v>71</v>
       </c>
       <c r="Y22" s="14">
@@ -2782,16 +2759,13 @@
       <c r="Z22" s="15">
         <v>0.1</v>
       </c>
-      <c r="AA22" s="52">
-        <f>SUM(Y21+Y22*(1-Y21))</f>
+      <c r="AA22" s="49">
         <v>0.95</v>
       </c>
       <c r="AB22" s="2">
-        <f>SUM(Z21+Z22*(1-Z21))</f>
         <v>0.23499999999999999</v>
       </c>
       <c r="AC22" s="11">
-        <f>SUM(AA22-AB22)</f>
         <v>0.71499999999999997</v>
       </c>
       <c r="AD22" s="7"/>
@@ -2825,11 +2799,11 @@
       <c r="R23" s="15"/>
       <c r="S23" s="14"/>
       <c r="T23" s="15"/>
-      <c r="V23" s="60"/>
+      <c r="V23" s="66"/>
       <c r="W23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="X23" s="33" t="s">
+      <c r="X23" s="31" t="s">
         <v>61</v>
       </c>
       <c r="Y23" s="14">
@@ -2839,16 +2813,13 @@
         <v>0.4</v>
       </c>
       <c r="AA23" s="10">
-        <f>SUM(AA22+Y23*(1-AA22))</f>
         <v>0.98499999999999999</v>
       </c>
-      <c r="AB23" s="24">
-        <f>SUM(AB22+Z23*(1-AB22))</f>
+      <c r="AB23" s="22">
         <v>0.54100000000000004</v>
       </c>
       <c r="AC23" s="11">
-        <f t="shared" ref="AC23:AC48" si="8">SUM(AA23-AB23)</f>
-        <v>0.44399999999999995</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="AD23" s="7"/>
     </row>
@@ -2881,11 +2852,11 @@
       <c r="R24" s="15"/>
       <c r="S24" s="14"/>
       <c r="T24" s="15"/>
-      <c r="V24" s="60"/>
+      <c r="V24" s="66"/>
       <c r="W24" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="X24" s="33" t="s">
+      <c r="X24" s="31" t="s">
         <v>50</v>
       </c>
       <c r="Y24" s="14">
@@ -2895,16 +2866,13 @@
         <v>0.2</v>
       </c>
       <c r="AA24" s="10">
-        <f t="shared" ref="AA24:AA28" si="9">SUM(AA23+Y24*(1-AA23))</f>
         <v>0.99399999999999999</v>
       </c>
-      <c r="AB24" s="24">
-        <f t="shared" ref="AB24:AB28" si="10">SUM(AB23+Z24*(1-AB23))</f>
+      <c r="AB24" s="22">
         <v>0.63280000000000003</v>
       </c>
       <c r="AC24" s="11">
-        <f t="shared" si="8"/>
-        <v>0.36119999999999997</v>
+        <v>0.36120000000000002</v>
       </c>
       <c r="AD24" s="7"/>
     </row>
@@ -2937,11 +2905,11 @@
       <c r="R25" s="15"/>
       <c r="S25" s="14"/>
       <c r="T25" s="15"/>
-      <c r="V25" s="60"/>
+      <c r="V25" s="66"/>
       <c r="W25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="X25" s="33" t="s">
+      <c r="X25" s="31" t="s">
         <v>60</v>
       </c>
       <c r="Y25" s="14">
@@ -2951,15 +2919,12 @@
         <v>0.1</v>
       </c>
       <c r="AA25" s="10">
-        <f t="shared" si="9"/>
         <v>0.997</v>
       </c>
-      <c r="AB25" s="24">
-        <f t="shared" si="10"/>
+      <c r="AB25" s="22">
         <v>0.66952</v>
       </c>
       <c r="AC25" s="11">
-        <f t="shared" si="8"/>
         <v>0.32747999999999999</v>
       </c>
       <c r="AD25" s="7"/>
@@ -2993,11 +2958,11 @@
       <c r="R26" s="15"/>
       <c r="S26" s="14"/>
       <c r="T26" s="15"/>
-      <c r="V26" s="60"/>
+      <c r="V26" s="66"/>
       <c r="W26" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="X26" s="33" t="s">
+      <c r="X26" s="31" t="s">
         <v>5</v>
       </c>
       <c r="Y26" s="14">
@@ -3007,16 +2972,13 @@
         <v>0.2</v>
       </c>
       <c r="AA26" s="10">
-        <f t="shared" si="9"/>
         <v>0.99909999999999999</v>
       </c>
-      <c r="AB26" s="24">
-        <f t="shared" si="10"/>
+      <c r="AB26" s="22">
         <v>0.73561600000000005</v>
       </c>
       <c r="AC26" s="11">
-        <f t="shared" si="8"/>
-        <v>0.26348399999999994</v>
+        <v>0.263484</v>
       </c>
       <c r="AD26" s="7"/>
     </row>
@@ -3049,11 +3011,11 @@
       <c r="R27" s="15"/>
       <c r="S27" s="14"/>
       <c r="T27" s="15"/>
-      <c r="V27" s="60"/>
+      <c r="V27" s="66"/>
       <c r="W27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="X27" s="33" t="s">
+      <c r="X27" s="31" t="s">
         <v>8</v>
       </c>
       <c r="Y27" s="14">
@@ -3063,16 +3025,13 @@
         <v>0.2</v>
       </c>
       <c r="AA27" s="10">
-        <f t="shared" si="9"/>
         <v>0.99982000000000004</v>
       </c>
-      <c r="AB27" s="24">
-        <f t="shared" si="10"/>
+      <c r="AB27" s="22">
         <v>0.78849279999999999</v>
       </c>
       <c r="AC27" s="11">
-        <f t="shared" si="8"/>
-        <v>0.21132720000000005</v>
+        <v>0.21132719999999999</v>
       </c>
       <c r="AD27" s="7"/>
     </row>
@@ -3105,11 +3064,11 @@
       <c r="R28" s="15"/>
       <c r="S28" s="14"/>
       <c r="T28" s="15"/>
-      <c r="V28" s="61"/>
-      <c r="W28" s="34" t="s">
+      <c r="V28" s="67"/>
+      <c r="W28" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="X28" s="35" t="s">
+      <c r="X28" s="33" t="s">
         <v>68</v>
       </c>
       <c r="Y28" s="16">
@@ -3118,17 +3077,14 @@
       <c r="Z28" s="17">
         <v>0.1</v>
       </c>
-      <c r="AA28" s="44">
-        <f t="shared" si="9"/>
+      <c r="AA28" s="42">
         <v>0.99992800000000004</v>
       </c>
-      <c r="AB28" s="47">
-        <f t="shared" si="10"/>
+      <c r="AB28" s="44">
         <v>0.80964351999999995</v>
       </c>
-      <c r="AC28" s="48">
-        <f t="shared" si="8"/>
-        <v>0.19028448000000009</v>
+      <c r="AC28" s="45">
+        <v>0.19028448000000001</v>
       </c>
       <c r="AD28" s="7"/>
     </row>
@@ -3161,24 +3117,24 @@
       <c r="R29" s="15"/>
       <c r="S29" s="14"/>
       <c r="T29" s="15"/>
-      <c r="V29" s="59" t="s">
+      <c r="V29" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="W29" s="31" t="s">
+      <c r="W29" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="X29" s="32" t="s">
+      <c r="X29" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="Y29" s="27">
+      <c r="Y29" s="25">
         <v>0.7</v>
       </c>
-      <c r="Z29" s="28">
+      <c r="Z29" s="26">
         <v>0.25</v>
       </c>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="21">
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="55">
         <v>0.45</v>
       </c>
       <c r="AD29" s="7"/>
@@ -3212,11 +3168,11 @@
       <c r="R30" s="15"/>
       <c r="S30" s="14"/>
       <c r="T30" s="15"/>
-      <c r="V30" s="60"/>
+      <c r="V30" s="66"/>
       <c r="W30" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="X30" s="33" t="s">
+      <c r="X30" s="31" t="s">
         <v>71</v>
       </c>
       <c r="Y30" s="14">
@@ -3225,17 +3181,14 @@
       <c r="Z30" s="15">
         <v>0.1</v>
       </c>
-      <c r="AA30" s="52">
-        <f>SUM(Y29+Y30*(1-Y29))</f>
+      <c r="AA30" s="49">
         <v>0.85</v>
       </c>
-      <c r="AB30" s="52">
-        <f>SUM(Z29+Z30*(1-Z29))</f>
+      <c r="AB30" s="49">
         <v>0.32500000000000001</v>
       </c>
       <c r="AC30" s="11">
-        <f t="shared" si="8"/>
-        <v>0.52499999999999991</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="AD30" s="7"/>
     </row>
@@ -3268,11 +3221,11 @@
       <c r="R31" s="15"/>
       <c r="S31" s="14"/>
       <c r="T31" s="15"/>
-      <c r="V31" s="60"/>
+      <c r="V31" s="66"/>
       <c r="W31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="X31" s="33" t="s">
+      <c r="X31" s="31" t="s">
         <v>61</v>
       </c>
       <c r="Y31" s="14">
@@ -3282,16 +3235,13 @@
         <v>0.3</v>
       </c>
       <c r="AA31" s="10">
-        <f>SUM(AA30+Y31*(1-AA30))</f>
         <v>0.98499999999999999</v>
       </c>
       <c r="AB31" s="10">
-        <f>SUM(AB30+Z31*(1-AB30))</f>
-        <v>0.52750000000000008</v>
+        <v>0.52749999999999997</v>
       </c>
       <c r="AC31" s="11">
-        <f t="shared" si="8"/>
-        <v>0.45749999999999991</v>
+        <v>0.45750000000000002</v>
       </c>
       <c r="AD31" s="7"/>
     </row>
@@ -3324,11 +3274,11 @@
       </c>
       <c r="S32" s="14"/>
       <c r="T32" s="15"/>
-      <c r="V32" s="60"/>
+      <c r="V32" s="66"/>
       <c r="W32" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="X32" s="33" t="s">
+      <c r="X32" s="31" t="s">
         <v>50</v>
       </c>
       <c r="Y32" s="14">
@@ -3338,16 +3288,13 @@
         <v>0.1</v>
       </c>
       <c r="AA32" s="10">
-        <f t="shared" ref="AA32:AA33" si="11">SUM(AA31+Y32*(1-AA31))</f>
         <v>0.99399999999999999</v>
       </c>
       <c r="AB32" s="10">
-        <f t="shared" ref="AB32:AB33" si="12">SUM(AB31+Z32*(1-AB31))</f>
-        <v>0.57475000000000009</v>
+        <v>0.57474999999999998</v>
       </c>
       <c r="AC32" s="11">
-        <f t="shared" si="8"/>
-        <v>0.4192499999999999</v>
+        <v>0.41925000000000001</v>
       </c>
       <c r="AD32" s="7"/>
     </row>
@@ -3380,11 +3327,11 @@
       </c>
       <c r="S33" s="14"/>
       <c r="T33" s="15"/>
-      <c r="V33" s="61"/>
-      <c r="W33" s="34" t="s">
+      <c r="V33" s="67"/>
+      <c r="W33" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="X33" s="35" t="s">
+      <c r="X33" s="33" t="s">
         <v>6</v>
       </c>
       <c r="Y33" s="16">
@@ -3393,16 +3340,13 @@
       <c r="Z33" s="17">
         <v>0.4</v>
       </c>
-      <c r="AA33" s="44">
-        <f t="shared" si="11"/>
+      <c r="AA33" s="42">
         <v>0.99880000000000002</v>
       </c>
-      <c r="AB33" s="44">
-        <f t="shared" si="12"/>
+      <c r="AB33" s="42">
         <v>0.74485000000000001</v>
       </c>
-      <c r="AC33" s="48">
-        <f t="shared" si="8"/>
+      <c r="AC33" s="45">
         <v>0.25395000000000001</v>
       </c>
       <c r="AD33" s="7"/>
@@ -3436,24 +3380,24 @@
       </c>
       <c r="S34" s="14"/>
       <c r="T34" s="15"/>
-      <c r="V34" s="59" t="s">
+      <c r="V34" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="W34" s="31" t="s">
+      <c r="W34" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="X34" s="32" t="s">
+      <c r="X34" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="Y34" s="27">
+      <c r="Y34" s="25">
         <v>0.6</v>
       </c>
-      <c r="Z34" s="28">
+      <c r="Z34" s="26">
         <v>0.2</v>
       </c>
-      <c r="AA34" s="51"/>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="21">
+      <c r="AA34" s="48"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="55">
         <v>0.4</v>
       </c>
       <c r="AD34" s="7"/>
@@ -3487,11 +3431,11 @@
       <c r="T35" s="15">
         <v>0.2</v>
       </c>
-      <c r="V35" s="60"/>
+      <c r="V35" s="66"/>
       <c r="W35" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="X35" s="33" t="s">
+      <c r="X35" s="31" t="s">
         <v>71</v>
       </c>
       <c r="Y35" s="14">
@@ -3500,17 +3444,14 @@
       <c r="Z35" s="15">
         <v>0.2</v>
       </c>
-      <c r="AA35" s="52">
-        <f>SUM(Y34+Y35*(1-Y34))</f>
-        <v>0.87999999999999989</v>
-      </c>
-      <c r="AB35" s="52">
-        <f>SUM(Z34+Z35*(1-Z34))</f>
-        <v>0.36000000000000004</v>
+      <c r="AA35" s="49">
+        <v>0.88</v>
+      </c>
+      <c r="AB35" s="49">
+        <v>0.36</v>
       </c>
       <c r="AC35" s="11">
-        <f t="shared" si="8"/>
-        <v>0.5199999999999998</v>
+        <v>0.52</v>
       </c>
       <c r="AD35" s="7"/>
     </row>
@@ -3543,11 +3484,11 @@
       <c r="R36" s="17"/>
       <c r="S36" s="16"/>
       <c r="T36" s="17"/>
-      <c r="V36" s="60"/>
+      <c r="V36" s="66"/>
       <c r="W36" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="X36" s="33" t="s">
+      <c r="X36" s="31" t="s">
         <v>61</v>
       </c>
       <c r="Y36" s="14">
@@ -3557,25 +3498,22 @@
         <v>0.1</v>
       </c>
       <c r="AA36" s="10">
-        <f>SUM(AA35+Y36*(1-AA35))</f>
         <v>0.94</v>
       </c>
       <c r="AB36" s="10">
-        <f>SUM(AB35+Z36*(1-AB35))</f>
-        <v>0.42400000000000004</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="AC36" s="11">
-        <f t="shared" si="8"/>
-        <v>0.5159999999999999</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="AD36" s="3"/>
     </row>
     <row r="37" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V37" s="61"/>
-      <c r="W37" s="34" t="s">
+      <c r="V37" s="67"/>
+      <c r="W37" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="X37" s="39" t="s">
+      <c r="X37" s="37" t="s">
         <v>3</v>
       </c>
       <c r="Y37" s="16">
@@ -3584,17 +3522,14 @@
       <c r="Z37" s="19">
         <v>0.2</v>
       </c>
-      <c r="AA37" s="44">
-        <f>SUM(AA36+Y37*(1-AA36))</f>
+      <c r="AA37" s="42">
         <v>0.98199999999999998</v>
       </c>
-      <c r="AB37" s="44">
-        <f>SUM(AB36+Z37*(1-AB36))</f>
+      <c r="AB37" s="42">
         <v>0.53920000000000001</v>
       </c>
-      <c r="AC37" s="48">
-        <f t="shared" si="8"/>
-        <v>0.44279999999999997</v>
+      <c r="AC37" s="45">
+        <v>0.44280000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
@@ -3602,27 +3537,29 @@
         <f>a</f>
         <v>#NAME?</v>
       </c>
-      <c r="V38" s="59" t="s">
+      <c r="V38" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="W38" s="31" t="s">
+      <c r="W38" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="X38" s="40" t="s">
+      <c r="X38" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="Y38" s="27">
+      <c r="Y38" s="25">
         <v>0.8</v>
       </c>
-      <c r="Z38" s="43">
+      <c r="Z38" s="41">
         <v>0.4</v>
       </c>
-      <c r="AA38" s="53"/>
-      <c r="AB38" s="54"/>
-      <c r="AC38" s="32"/>
+      <c r="AA38" s="50"/>
+      <c r="AB38" s="51"/>
+      <c r="AC38" s="30">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="V39" s="60"/>
+      <c r="V39" s="66"/>
       <c r="W39" s="2" t="s">
         <v>87</v>
       </c>
@@ -3635,22 +3572,19 @@
       <c r="Z39" s="7">
         <v>0.35</v>
       </c>
-      <c r="AA39" s="52">
-        <f>SUM(Y38+Y39*(1-Y38))</f>
+      <c r="AA39" s="49">
         <v>0.96</v>
       </c>
-      <c r="AB39" s="52">
-        <f>SUM(Z38+Z39*(1-Z38))</f>
+      <c r="AB39" s="49">
         <v>0.61</v>
       </c>
       <c r="AC39" s="11">
-        <f t="shared" si="8"/>
         <v>0.35</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="V40" s="60"/>
-      <c r="W40" s="37" t="s">
+      <c r="V40" s="66"/>
+      <c r="W40" s="35" t="s">
         <v>101</v>
       </c>
       <c r="X40" s="9" t="s">
@@ -3663,21 +3597,18 @@
         <v>0.2</v>
       </c>
       <c r="AA40" s="10">
-        <f>SUM(AA39+Y40*(1-AA39))</f>
         <v>0.99199999999999999</v>
       </c>
       <c r="AB40" s="10">
-        <f>SUM(AB39+Z40*(1-AB39))</f>
         <v>0.68799999999999994</v>
       </c>
       <c r="AC40" s="11">
-        <f t="shared" si="8"/>
-        <v>0.30400000000000005</v>
+        <v>0.30399999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="V41" s="60"/>
-      <c r="W41" s="37" t="s">
+      <c r="V41" s="66"/>
+      <c r="W41" s="35" t="s">
         <v>102</v>
       </c>
       <c r="X41" s="9" t="s">
@@ -3690,24 +3621,21 @@
         <v>0.1</v>
       </c>
       <c r="AA41" s="10">
-        <f t="shared" ref="AA41:AA42" si="13">SUM(AA40+Y41*(1-AA40))</f>
         <v>0.99760000000000004</v>
       </c>
       <c r="AB41" s="10">
-        <f t="shared" ref="AB41:AB42" si="14">SUM(AB40+Z41*(1-AB40))</f>
         <v>0.71919999999999995</v>
       </c>
       <c r="AC41" s="11">
-        <f t="shared" si="8"/>
-        <v>0.27840000000000009</v>
+        <v>0.27839999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V42" s="60"/>
-      <c r="W42" s="37" t="s">
+      <c r="V42" s="67"/>
+      <c r="W42" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="X42" s="36" t="s">
+      <c r="X42" s="34" t="s">
         <v>1</v>
       </c>
       <c r="Y42" s="16">
@@ -3716,27 +3644,24 @@
       <c r="Z42" s="19">
         <v>0.3</v>
       </c>
-      <c r="AA42" s="44">
-        <f t="shared" si="13"/>
+      <c r="AA42" s="42">
         <v>0.99951999999999996</v>
       </c>
-      <c r="AB42" s="44">
-        <f t="shared" si="14"/>
-        <v>0.80343999999999993</v>
-      </c>
-      <c r="AC42" s="48">
-        <f t="shared" si="8"/>
-        <v>0.19608000000000003</v>
+      <c r="AB42" s="42">
+        <v>0.80344000000000004</v>
+      </c>
+      <c r="AC42" s="45">
+        <v>0.19608</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="V43" s="59" t="s">
+      <c r="V43" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="W43" s="31" t="s">
+      <c r="W43" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="X43" s="32" t="s">
+      <c r="X43" s="30" t="s">
         <v>62</v>
       </c>
       <c r="Y43" s="14">
@@ -3745,18 +3670,18 @@
       <c r="Z43" s="7">
         <v>0.1</v>
       </c>
-      <c r="AA43" s="53"/>
-      <c r="AB43" s="54"/>
-      <c r="AC43" s="55">
+      <c r="AA43" s="50"/>
+      <c r="AB43" s="51"/>
+      <c r="AC43" s="52">
         <v>0.7</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="V44" s="60"/>
-      <c r="W44" s="41" t="s">
+      <c r="V44" s="66"/>
+      <c r="W44" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="X44" s="33" t="s">
+      <c r="X44" s="31" t="s">
         <v>53</v>
       </c>
       <c r="Y44" s="14">
@@ -3765,25 +3690,22 @@
       <c r="Z44" s="7">
         <v>0.3</v>
       </c>
-      <c r="AA44" s="52">
-        <f>SUM(Y43+Y44*(1-Y43))</f>
+      <c r="AA44" s="49">
         <v>0.92</v>
       </c>
-      <c r="AB44" s="52">
-        <f>SUM(Z43+Z44*(1-Z43))</f>
+      <c r="AB44" s="49">
         <v>0.37</v>
       </c>
       <c r="AC44" s="11">
-        <f t="shared" si="8"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="V45" s="60"/>
-      <c r="W45" s="41" t="s">
+      <c r="V45" s="66"/>
+      <c r="W45" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="X45" s="33" t="s">
+      <c r="X45" s="31" t="s">
         <v>51</v>
       </c>
       <c r="Y45" s="14">
@@ -3793,24 +3715,21 @@
         <v>0.1</v>
       </c>
       <c r="AA45" s="10">
-        <f>SUM(AA44+Y45*(1-AA44))</f>
         <v>0.99199999999999999</v>
       </c>
       <c r="AB45" s="10">
-        <f>SUM(AB44+Z45*(1-AB44))</f>
         <v>0.433</v>
       </c>
       <c r="AC45" s="11">
-        <f t="shared" si="8"/>
-        <v>0.55899999999999994</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="V46" s="60"/>
-      <c r="W46" s="41" t="s">
+      <c r="V46" s="66"/>
+      <c r="W46" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="X46" s="33" t="s">
+      <c r="X46" s="31" t="s">
         <v>52</v>
       </c>
       <c r="Y46" s="14">
@@ -3820,24 +3739,21 @@
         <v>0.4</v>
       </c>
       <c r="AA46" s="10">
-        <f t="shared" ref="AA46:AA48" si="15">SUM(AA45+Y46*(1-AA45))</f>
         <v>0.99839999999999995</v>
       </c>
       <c r="AB46" s="10">
-        <f t="shared" ref="AB46:AB48" si="16">SUM(AB45+Z46*(1-AB45))</f>
-        <v>0.65979999999999994</v>
+        <v>0.65980000000000005</v>
       </c>
       <c r="AC46" s="11">
-        <f t="shared" si="8"/>
         <v>0.33860000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="V47" s="60"/>
-      <c r="W47" s="41" t="s">
+      <c r="V47" s="66"/>
+      <c r="W47" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="X47" s="33" t="s">
+      <c r="X47" s="31" t="s">
         <v>64</v>
       </c>
       <c r="Y47" s="14">
@@ -3847,24 +3763,21 @@
         <v>0.3</v>
       </c>
       <c r="AA47" s="10">
-        <f t="shared" si="15"/>
         <v>0.99936000000000003</v>
       </c>
       <c r="AB47" s="10">
-        <f t="shared" si="16"/>
         <v>0.76185999999999998</v>
       </c>
       <c r="AC47" s="11">
-        <f t="shared" si="8"/>
-        <v>0.23750000000000004</v>
+        <v>0.23749999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V48" s="61"/>
-      <c r="W48" s="42" t="s">
+      <c r="V48" s="67"/>
+      <c r="W48" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="X48" s="35" t="s">
+      <c r="X48" s="33" t="s">
         <v>72</v>
       </c>
       <c r="Y48" s="16">
@@ -3873,42 +3786,41 @@
       <c r="Z48" s="19">
         <v>0.1</v>
       </c>
-      <c r="AA48" s="44">
-        <f t="shared" si="15"/>
+      <c r="AA48" s="42">
         <v>0.99987199999999998</v>
       </c>
-      <c r="AB48" s="44">
-        <f t="shared" si="16"/>
+      <c r="AB48" s="42">
         <v>0.78567399999999998</v>
       </c>
-      <c r="AC48" s="48">
-        <f t="shared" si="8"/>
+      <c r="AC48" s="45">
         <v>0.214198</v>
       </c>
     </row>
     <row r="49" spans="22:29" x14ac:dyDescent="0.25">
-      <c r="V49" s="59" t="s">
+      <c r="V49" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="W49" s="31" t="s">
+      <c r="W49" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="X49" s="40" t="s">
+      <c r="X49" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="Y49" s="27">
+      <c r="Y49" s="25">
         <v>0.6</v>
       </c>
-      <c r="Z49" s="43">
+      <c r="Z49" s="41">
         <v>0.2</v>
       </c>
-      <c r="AA49" s="5"/>
-      <c r="AB49" s="5"/>
-      <c r="AC49" s="5"/>
+      <c r="AA49" s="51"/>
+      <c r="AB49" s="51"/>
+      <c r="AC49" s="30">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="50" spans="22:29" x14ac:dyDescent="0.25">
-      <c r="V50" s="60"/>
-      <c r="W50" s="41" t="s">
+      <c r="V50" s="66"/>
+      <c r="W50" s="39" t="s">
         <v>104</v>
       </c>
       <c r="X50" s="9" t="s">
@@ -3920,13 +3832,19 @@
       <c r="Z50" s="7">
         <v>0.2</v>
       </c>
-      <c r="AA50" s="1"/>
-      <c r="AB50" s="1"/>
-      <c r="AC50" s="1"/>
+      <c r="AA50" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="AC50" s="31">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="51" spans="22:29" x14ac:dyDescent="0.25">
-      <c r="V51" s="60"/>
-      <c r="W51" s="41" t="s">
+      <c r="V51" s="66"/>
+      <c r="W51" s="39" t="s">
         <v>105</v>
       </c>
       <c r="X51" s="9" t="s">
@@ -3938,13 +3856,19 @@
       <c r="Z51" s="7">
         <v>0.1</v>
       </c>
-      <c r="AA51" s="1"/>
-      <c r="AB51" s="1"/>
-      <c r="AC51" s="1"/>
+      <c r="AA51" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="AC51" s="31">
+        <v>0.56799999999999995</v>
+      </c>
     </row>
     <row r="52" spans="22:29" x14ac:dyDescent="0.25">
-      <c r="V52" s="60"/>
-      <c r="W52" s="41" t="s">
+      <c r="V52" s="66"/>
+      <c r="W52" s="39" t="s">
         <v>106</v>
       </c>
       <c r="X52" s="9" t="s">
@@ -3956,16 +3880,22 @@
       <c r="Z52" s="7">
         <v>0.5</v>
       </c>
-      <c r="AA52" s="1"/>
-      <c r="AB52" s="1"/>
-      <c r="AC52" s="1"/>
+      <c r="AA52" s="1">
+        <v>0.99680000000000002</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="AC52" s="31">
+        <v>0.2848</v>
+      </c>
     </row>
     <row r="53" spans="22:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V53" s="61"/>
-      <c r="W53" s="42" t="s">
+      <c r="V53" s="67"/>
+      <c r="W53" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="X53" s="39" t="s">
+      <c r="X53" s="37" t="s">
         <v>4</v>
       </c>
       <c r="Y53" s="16">
@@ -3974,23 +3904,947 @@
       <c r="Z53" s="19">
         <v>0.1</v>
       </c>
-      <c r="AA53" s="1"/>
-      <c r="AB53" s="1"/>
-      <c r="AC53" s="1"/>
+      <c r="AA53" s="72">
+        <v>0.99872000000000005</v>
+      </c>
+      <c r="AB53" s="72">
+        <v>0.74080000000000001</v>
+      </c>
+      <c r="AC53" s="33">
+        <v>0.25791999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V54" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="W54" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="X54" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y54" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="Z54" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="AA54" s="29"/>
+      <c r="AB54" s="29"/>
+      <c r="AC54" s="55">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="55" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V55" s="74"/>
+      <c r="W55" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="X55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Z55" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="AB55" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AC55" s="11">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="56" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V56" s="74"/>
+      <c r="W56" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="X56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="Z56" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AA56" s="2">
+        <v>0.996</v>
+      </c>
+      <c r="AB56" s="2">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="AC56" s="11">
+        <v>0.57199999999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V57" s="74"/>
+      <c r="W57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="X57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y57" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Z57" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="AB57" s="2">
+        <v>0.5968</v>
+      </c>
+      <c r="AC57" s="11">
+        <v>0.40279999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V58" s="74"/>
+      <c r="W58" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Z58" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA58" s="2">
+        <v>0.99995999999999996</v>
+      </c>
+      <c r="AB58" s="2">
+        <v>0.63712000000000002</v>
+      </c>
+      <c r="AC58" s="11">
+        <v>0.36284</v>
+      </c>
+    </row>
+    <row r="59" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V59" s="74"/>
+      <c r="W59" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="X59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y59" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="Z59" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AA59" s="2">
+        <v>0.99998799999999999</v>
+      </c>
+      <c r="AB59" s="2">
+        <v>0.70969599999999999</v>
+      </c>
+      <c r="AC59" s="11">
+        <v>0.29029199999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V60" s="74"/>
+      <c r="W60" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="X60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y60" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="Z60" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AA60" s="2">
+        <v>0.99999280000000002</v>
+      </c>
+      <c r="AB60" s="2">
+        <v>0.76775680000000002</v>
+      </c>
+      <c r="AC60" s="11">
+        <v>0.232236</v>
+      </c>
+    </row>
+    <row r="61" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V61" s="74"/>
+      <c r="W61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="X61" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y61" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z61" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA61" s="2">
+        <v>0.99999640000000001</v>
+      </c>
+      <c r="AB61" s="2">
+        <v>0.79098111999999998</v>
+      </c>
+      <c r="AC61" s="11">
+        <v>0.20901528</v>
+      </c>
+    </row>
+    <row r="62" spans="22:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V62" s="75"/>
+      <c r="W62" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="X62" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y62" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="Z62" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="AA62" s="32">
+        <v>0.99999928000000005</v>
+      </c>
+      <c r="AB62" s="32">
+        <v>0.85368678399999998</v>
+      </c>
+      <c r="AC62" s="45">
+        <v>0.14631249599999999</v>
+      </c>
+    </row>
+    <row r="63" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V63" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="W63" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="X63" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y63" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="Z63" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="AA63" s="29"/>
+      <c r="AB63" s="29"/>
+      <c r="AC63" s="55">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="64" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V64" s="74"/>
+      <c r="W64" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="X64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y64" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="Z64" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="AA64" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="AB64" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AC64" s="11">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="65" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V65" s="74"/>
+      <c r="W65" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="X65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y65" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="Z65" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AA65" s="2">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="AB65" s="2">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="AC65" s="11">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="66" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V66" s="74"/>
+      <c r="W66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="X66" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y66" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="Z66" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AA66" s="2">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="AB66" s="2">
+        <v>0.73119999999999996</v>
+      </c>
+      <c r="AC66" s="11">
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V67" s="74"/>
+      <c r="W67" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="X67" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y67" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="Z67" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA67" s="2">
+        <v>0.99856</v>
+      </c>
+      <c r="AB67" s="2">
+        <v>0.75807999999999998</v>
+      </c>
+      <c r="AC67" s="11">
+        <v>0.24048</v>
+      </c>
+    </row>
+    <row r="68" spans="22:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V68" s="75"/>
+      <c r="W68" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="X68" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y68" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="Z68" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="AA68" s="32">
+        <v>0.99971200000000005</v>
+      </c>
+      <c r="AB68" s="32">
+        <v>0.83065599999999995</v>
+      </c>
+      <c r="AC68" s="45">
+        <v>0.16905600000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V69" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="W69" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="X69" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y69" s="29">
+        <v>0.7</v>
+      </c>
+      <c r="Z69" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="AA69" s="29"/>
+      <c r="AB69" s="29"/>
+      <c r="AC69" s="55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V70" s="74"/>
+      <c r="W70" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="X70" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y70" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="Z70" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AA70" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="AB70" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="AC70" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V71" s="74"/>
+      <c r="W71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="X71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y71" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="Z71" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="AA71" s="2">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="AB71" s="2">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="AC71" s="11">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="22:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V72" s="75"/>
+      <c r="W72" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="X72" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y72" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="Z72" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="AA72" s="32">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="AB72" s="32">
+        <v>0.65439999999999998</v>
+      </c>
+      <c r="AC72" s="45">
+        <v>0.34379999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V73" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="W73" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="X73" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y73" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="Z73" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AA73" s="4"/>
+      <c r="AB73" s="4"/>
+      <c r="AC73" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="74" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V74" s="63"/>
+      <c r="W74" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="X74" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y74" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="Z74" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA74" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="AB74" s="2">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="AC74" s="2">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="75" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V75" s="63"/>
+      <c r="W75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="X75" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y75" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z75" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA75" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="AB75" s="2">
+        <v>0.3115</v>
+      </c>
+      <c r="AC75" s="2">
+        <v>0.58850000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V76" s="63"/>
+      <c r="W76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="X76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="Z76" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AA76" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="AB76" s="2">
+        <v>0.44919999999999999</v>
+      </c>
+      <c r="AC76" s="2">
+        <v>0.52080000000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V77" s="63"/>
+      <c r="W77" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y77" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="Z77" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AA77" s="2">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="AB77" s="2">
+        <v>0.55935999999999997</v>
+      </c>
+      <c r="AC77" s="2">
+        <v>0.43464000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="22:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V78" s="64"/>
+      <c r="W78" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="X78" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y78" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="Z78" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="AA78" s="23">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="AB78" s="23">
+        <v>0.60342399999999996</v>
+      </c>
+      <c r="AC78" s="23">
+        <v>0.39417600000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V79" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="W79" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="X79" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y79" s="29">
+        <v>0.7</v>
+      </c>
+      <c r="Z79" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="AA79" s="29"/>
+      <c r="AB79" s="29"/>
+      <c r="AC79" s="55">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="80" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V80" s="74"/>
+      <c r="W80" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="X80" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y80" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="Z80" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA80" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="AB80" s="2">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AC80" s="11">
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="22:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V81" s="75"/>
+      <c r="W81" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="X81" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y81" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="Z81" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="AA81" s="32">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="AB81" s="32">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="AC81" s="45">
+        <v>0.38700000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V82" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="W82" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="X82" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y82" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="Z82" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AA82" s="4"/>
+      <c r="AB82" s="4"/>
+      <c r="AC82" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="83" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V83" s="63"/>
+      <c r="W83" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="X83" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y83" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Z83" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA83" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="AB83" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="AC83" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="84" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V84" s="63"/>
+      <c r="W84" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="X84" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y84" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z84" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA84" s="2">
+        <v>0.995</v>
+      </c>
+      <c r="AB84" s="2">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="AC84" s="2">
+        <v>0.72399999999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V85" s="63"/>
+      <c r="W85" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="X85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y85" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Z85" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="AA85" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="AB85" s="2">
+        <v>0.48970000000000002</v>
+      </c>
+      <c r="AC85" s="2">
+        <v>0.50980000000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="22:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V86" s="64"/>
+      <c r="W86" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="X86" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y86" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="Z86" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="AA86" s="23">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="AB86" s="23">
+        <v>0.64278999999999997</v>
+      </c>
+      <c r="AC86" s="23">
+        <v>0.35700999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V87" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="W87" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="X87" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y87" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="Z87" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="AA87" s="29"/>
+      <c r="AB87" s="29"/>
+      <c r="AC87" s="55">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="88" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V88" s="74"/>
+      <c r="W88" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="X88" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y88" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="Z88" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AA88" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="AB88" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="AC88" s="11">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="89" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V89" s="74"/>
+      <c r="W89" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="X89" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y89" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="Z89" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA89" s="2">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="AB89" s="2">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="AC89" s="11">
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V90" s="74"/>
+      <c r="W90" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="X90" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y90" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="Z90" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AA90" s="2">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="AB90" s="2">
+        <v>0.65439999999999998</v>
+      </c>
+      <c r="AC90" s="11">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V91" s="74"/>
+      <c r="W91" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="X91" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y91" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="Z91" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA91" s="2">
+        <v>0.99892000000000003</v>
+      </c>
+      <c r="AB91" s="2">
+        <v>0.68896000000000002</v>
+      </c>
+      <c r="AC91" s="11">
+        <v>0.30996000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="22:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V92" s="75"/>
+      <c r="W92" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="X92" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y92" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="Z92" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="AA92" s="32">
+        <v>0.99978400000000001</v>
+      </c>
+      <c r="AB92" s="32">
+        <v>0.78227199999999997</v>
+      </c>
+      <c r="AC92" s="45">
+        <v>0.21751200000000001</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
+  <mergeCells count="33">
+    <mergeCell ref="V82:V86"/>
+    <mergeCell ref="V87:V92"/>
+    <mergeCell ref="V54:V62"/>
+    <mergeCell ref="V63:V68"/>
+    <mergeCell ref="V69:V72"/>
+    <mergeCell ref="V73:V78"/>
+    <mergeCell ref="V79:V81"/>
     <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="V34:V37"/>
     <mergeCell ref="V38:V42"/>
@@ -4003,10 +4857,20 @@
     <mergeCell ref="V21:V28"/>
     <mergeCell ref="V29:V33"/>
     <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
